--- a/Jogos_do_Dia/2023-10-27_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-27_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ68"/>
+  <dimension ref="A1:AQ70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,13 +691,13 @@
         <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="K2" t="n">
-        <v>3.73</v>
+        <v>3.85</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="M2" t="n">
         <v>1.36</v>
@@ -718,10 +718,10 @@
         <v>3.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U2" t="n">
         <v>1.82</v>
@@ -830,13 +830,13 @@
         <v>4.33</v>
       </c>
       <c r="J3" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="K3" t="n">
-        <v>3.42</v>
+        <v>3.05</v>
       </c>
       <c r="L3" t="n">
-        <v>3.66</v>
+        <v>3.2</v>
       </c>
       <c r="M3" t="n">
         <v>1.5</v>
@@ -857,10 +857,10 @@
         <v>2.9</v>
       </c>
       <c r="S3" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T3" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U3" t="n">
         <v>1.91</v>
@@ -969,13 +969,13 @@
         <v>6.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="K4" t="n">
-        <v>4.05</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>7.2</v>
+        <v>5.7</v>
       </c>
       <c r="M4" t="n">
         <v>1.44</v>
@@ -996,10 +996,10 @@
         <v>2.95</v>
       </c>
       <c r="S4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U4" t="n">
         <v>2.2</v>
@@ -1099,52 +1099,52 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I5" t="n">
         <v>2.4</v>
       </c>
-      <c r="H5" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.1</v>
-      </c>
       <c r="J5" t="n">
-        <v>1.71</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>1.73</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="S5" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="U5" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V5" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="W5" t="n">
         <v>1.19</v>
@@ -1171,43 +1171,43 @@
         <v>2.53</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6">
@@ -1247,13 +1247,13 @@
         <v>3.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.07</v>
+        <v>3.04</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L6" t="n">
-        <v>2.42</v>
+        <v>2.43</v>
       </c>
       <c r="M6" t="n">
         <v>1.5</v>
@@ -1271,13 +1271,13 @@
         <v>1.49</v>
       </c>
       <c r="R6" t="n">
-        <v>2.55</v>
+        <v>2.46</v>
       </c>
       <c r="S6" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="T6" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U6" t="n">
         <v>2.12</v>
@@ -1386,13 +1386,13 @@
         <v>4.9</v>
       </c>
       <c r="J7" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="K7" t="n">
-        <v>3.97</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>5.3</v>
+        <v>4.92</v>
       </c>
       <c r="M7" t="n">
         <v>1.32</v>
@@ -1413,10 +1413,10 @@
         <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="T7" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="U7" t="n">
         <v>1.75</v>
@@ -1464,28 +1464,28 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="8">
@@ -1525,13 +1525,13 @@
         <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>1.91</v>
+        <v>1.63</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>4.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="M8" t="n">
         <v>1.25</v>
@@ -1552,10 +1552,10 @@
         <v>4.2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="T8" t="n">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="U8" t="n">
         <v>1.53</v>
@@ -1588,37 +1588,37 @@
         <v>3.44</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AP8" t="n">
         <v>1.85</v>
@@ -1630,7 +1630,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Estonia Meistriliiga</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1642,89 +1642,89 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Javor Ivanjica</t>
+          <t>Vaprus</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Harju Jalgpallikool</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>4.37</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.25</v>
+        <v>1.06</v>
       </c>
       <c r="AA9" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AB9" t="n">
         <v>1.18</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.26</v>
+        <v>0.99</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.44</v>
+        <v>2.17</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -1769,7 +1769,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Estonia Meistriliiga</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1781,89 +1781,89 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Beroe</t>
+          <t>Tammeka</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Levski Sofia</t>
+          <t>Tallinna Kalev</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="J10" t="n">
-        <v>5.35</v>
+        <v>3.67</v>
       </c>
       <c r="K10" t="n">
-        <v>3.72</v>
+        <v>3.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.66</v>
+        <v>1.87</v>
       </c>
       <c r="M10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AC10" t="n">
         <v>1.44</v>
       </c>
-      <c r="N10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P10" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1.7</v>
-      </c>
       <c r="AD10" t="n">
-        <v>3.06</v>
+        <v>2.97</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Croatia Prva HNL</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1924,130 +1924,130 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Slaven Koprivnica</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Puszcza Niepołomice</t>
+          <t>Hajduk Split</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.45</v>
+        <v>5.8</v>
       </c>
       <c r="H11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4.33</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.84</v>
+        <v>5.61</v>
       </c>
       <c r="K11" t="n">
-        <v>3.3</v>
+        <v>3.98</v>
       </c>
       <c r="L11" t="n">
-        <v>3.59</v>
+        <v>1.53</v>
       </c>
       <c r="M11" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="N11" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
         <v>1.05</v>
       </c>
       <c r="P11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="R11" t="n">
         <v>3.5</v>
       </c>
       <c r="S11" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="T11" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="U11" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="V11" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W11" t="n">
-        <v>1.18</v>
+        <v>2.4</v>
       </c>
       <c r="X11" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.17</v>
+        <v>1.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.68</v>
+        <v>1.37</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AD11" t="n">
-        <v>3.04</v>
+        <v>2.8</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.55</v>
+        <v>3.44</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="AG11" t="n">
-        <v>3.01</v>
+        <v>1.46</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.55</v>
+        <v>2.72</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.48</v>
+        <v>2.02</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.88</v>
+        <v>2.21</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.93</v>
+        <v>1.59</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.45</v>
+        <v>2.98</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="AP11" t="n">
         <v>3.4</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Croatia Prva HNL</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -2059,122 +2059,122 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Slaven Koprivnica</t>
+          <t>Beroe</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Hajduk Split</t>
+          <t>Levski Sofia</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="H12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J12" t="n">
-        <v>5.61</v>
+        <v>6.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.98</v>
+        <v>3.85</v>
       </c>
       <c r="L12" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="M12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P12" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1.36</v>
       </c>
-      <c r="N12" t="n">
+      <c r="R12" t="n">
         <v>3</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3.5</v>
-      </c>
       <c r="S12" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="U12" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="V12" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="W12" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="X12" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="Z12" t="n">
         <v>1.67</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.8</v>
+        <v>3.06</v>
       </c>
       <c r="AE12" t="n">
-        <v>3.44</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
@@ -2186,7 +2186,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Estonia Meistriliiga</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -2198,134 +2198,134 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tammeka</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tallinna Kalev</t>
+          <t>Puszcza Niepołomice</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="H13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.4</v>
+        <v>4.33</v>
       </c>
       <c r="J13" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP13" t="n">
         <v>3.4</v>
       </c>
-      <c r="K13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P13" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Estonia Meistriliiga</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -2337,89 +2337,89 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Vaprus</t>
+          <t>Javor Ivanjica</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Harju Jalgpallikool</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="H14" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="N14" t="n">
-        <v>3.34</v>
+        <v>2.77</v>
       </c>
       <c r="O14" t="n">
         <v>1.02</v>
       </c>
       <c r="P14" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="R14" t="n">
-        <v>4.37</v>
+        <v>3.2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.58</v>
+        <v>1.98</v>
       </c>
       <c r="T14" t="n">
-        <v>2.23</v>
+        <v>1.8</v>
       </c>
       <c r="U14" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y14" t="n">
         <v>1.59</v>
       </c>
-      <c r="V14" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1.78</v>
-      </c>
       <c r="Z14" t="n">
-        <v>1.06</v>
+        <v>2.25</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AB14" t="n">
         <v>1.18</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.99</v>
+        <v>1.26</v>
       </c>
       <c r="AD14" t="n">
-        <v>2.17</v>
+        <v>2.44</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
@@ -2480,85 +2480,85 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lafnitz</t>
+          <t>Leoben</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sturm Graz II</t>
+          <t>Admira</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="H15" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="J15" t="n">
-        <v>1.67</v>
+        <v>2.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.63</v>
+        <v>3.5</v>
       </c>
       <c r="L15" t="n">
-        <v>3.52</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="S15" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="T15" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="Z15" t="n">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="AA15" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.99</v>
+        <v>2.9</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -2619,94 +2619,94 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Amstetten</t>
+          <t>Dornbirn</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kapfenberger SV</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="H16" t="n">
         <v>2.2</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="J16" t="n">
-        <v>2.31</v>
+        <v>3.8</v>
       </c>
       <c r="K16" t="n">
         <v>3.65</v>
       </c>
       <c r="L16" t="n">
-        <v>2.74</v>
+        <v>1.78</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="S16" t="n">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="T16" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="U16" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V16" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.35</v>
+        <v>1.69</v>
       </c>
       <c r="AD16" t="n">
-        <v>2.78</v>
+        <v>2.99</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AH16" t="n">
         <v>0</v>
@@ -2715,28 +2715,28 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="17">
@@ -2758,85 +2758,85 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Horn</t>
+          <t>Lafnitz</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Grazer AK</t>
+          <t>Sturm Graz II</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R17" t="n">
         <v>4.5</v>
       </c>
-      <c r="H17" t="n">
+      <c r="S17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V17" t="n">
         <v>2.38</v>
       </c>
-      <c r="I17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.17</v>
+        <v>1</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="AD17" t="n">
-        <v>3.17</v>
+        <v>2.99</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -2897,124 +2897,124 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Leoben</t>
+          <t>Horn</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Admira</t>
+          <t>Grazer AK</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="H18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T18" t="n">
         <v>2.25</v>
       </c>
-      <c r="I18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.08</v>
-      </c>
       <c r="U18" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.17</v>
+        <v>2.4</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.6</v>
+        <v>2.17</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.9</v>
+        <v>3.17</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="19">
@@ -3036,94 +3036,94 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Dornbirn</t>
+          <t>Amstetten</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Kapfenberger SV</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="H19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="J19" t="n">
-        <v>4.11</v>
+        <v>2.43</v>
       </c>
       <c r="K19" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.68</v>
+        <v>2.43</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S19" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T19" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="U19" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.69</v>
+        <v>1.35</v>
       </c>
       <c r="AD19" t="n">
-        <v>2.99</v>
+        <v>2.78</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AH19" t="n">
         <v>0</v>
@@ -3132,28 +3132,28 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AP19" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="20">
@@ -3175,31 +3175,31 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Eintracht Braunschweig</t>
+          <t>Greuther Fürth</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Fortuna Düsseldorf</t>
+          <t>Osnabrück</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K20" t="n">
         <v>4</v>
       </c>
-      <c r="H20" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.43</v>
-      </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>3.73</v>
       </c>
       <c r="M20" t="n">
         <v>1.29</v>
@@ -3214,16 +3214,16 @@
         <v>10</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="R20" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="S20" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U20" t="n">
         <v>1.57</v>
@@ -3232,67 +3232,67 @@
         <v>2.25</v>
       </c>
       <c r="W20" t="n">
-        <v>1.9</v>
+        <v>1.15</v>
       </c>
       <c r="X20" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.28</v>
+        <v>2.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.46</v>
+        <v>1.12</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.89</v>
+        <v>2.7</v>
       </c>
       <c r="AE20" t="n">
-        <v>2.1</v>
+        <v>1.31</v>
       </c>
       <c r="AF20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.91</v>
+        <v>4.11</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="AI20" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AK20" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AL20" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AM20" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AN20" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AO20" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="21">
@@ -3314,31 +3314,31 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Greuther Fürth</t>
+          <t>Eintracht Braunschweig</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Osnabrück</t>
+          <t>Fortuna Düsseldorf</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="I21" t="n">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="J21" t="n">
-        <v>1.6</v>
+        <v>3.45</v>
       </c>
       <c r="K21" t="n">
-        <v>3.72</v>
+        <v>3.7</v>
       </c>
       <c r="L21" t="n">
-        <v>4.26</v>
+        <v>1.8</v>
       </c>
       <c r="M21" t="n">
         <v>1.29</v>
@@ -3353,16 +3353,16 @@
         <v>10</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="R21" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="S21" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="T21" t="n">
-        <v>2.09</v>
+        <v>2.2</v>
       </c>
       <c r="U21" t="n">
         <v>1.57</v>
@@ -3371,67 +3371,67 @@
         <v>2.25</v>
       </c>
       <c r="W21" t="n">
-        <v>1.15</v>
+        <v>1.9</v>
       </c>
       <c r="X21" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="Y21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM21" t="n">
         <v>2.2</v>
       </c>
-      <c r="Z21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>2.15</v>
-      </c>
       <c r="AN21" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="22">
@@ -3471,13 +3471,13 @@
         <v>5.5</v>
       </c>
       <c r="J22" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="K22" t="n">
-        <v>3.53</v>
+        <v>3.85</v>
       </c>
       <c r="L22" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="M22" t="n">
         <v>1.33</v>
@@ -3498,10 +3498,10 @@
         <v>3.95</v>
       </c>
       <c r="S22" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="T22" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="U22" t="n">
         <v>1.8</v>
@@ -3576,7 +3576,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
@@ -3588,128 +3588,128 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>FC Penafiel</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>CD Mafra</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H23" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="I23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J23" t="n">
-        <v>2.08</v>
+        <v>2.46</v>
       </c>
       <c r="K23" t="n">
-        <v>3.36</v>
+        <v>3.25</v>
       </c>
       <c r="L23" t="n">
-        <v>2.97</v>
+        <v>2.53</v>
       </c>
       <c r="M23" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="O23" t="n">
         <v>1.05</v>
       </c>
       <c r="P23" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="Q23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X23" t="n">
         <v>1.25</v>
       </c>
-      <c r="R23" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1.28</v>
-      </c>
       <c r="Y23" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="Z23" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.14</v>
+        <v>1.54</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>2.04</v>
+        <v>2.84</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
         <v>1.98</v>
       </c>
-      <c r="AM23" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>2.65</v>
-      </c>
       <c r="AO23" t="n">
-        <v>1.39</v>
+        <v>1.83</v>
       </c>
       <c r="AP23" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -3731,55 +3731,55 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Kasımpaşa</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>İstanbulspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H24" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="I24" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="J24" t="n">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="K24" t="n">
-        <v>3.48</v>
+        <v>3.6</v>
       </c>
       <c r="L24" t="n">
-        <v>3.53</v>
+        <v>3.25</v>
       </c>
       <c r="M24" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="N24" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P24" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="R24" t="n">
-        <v>4.33</v>
+        <v>3.82</v>
       </c>
       <c r="S24" t="n">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="T24" t="n">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
       <c r="U24" t="n">
         <v>1.63</v>
@@ -3788,67 +3788,67 @@
         <v>2.1</v>
       </c>
       <c r="W24" t="n">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="X24" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="Y24" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL24" t="n">
         <v>1.98</v>
       </c>
-      <c r="Z24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AJ24" t="n">
+      <c r="AM24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AO24" t="n">
         <v>1.39</v>
       </c>
-      <c r="AK24" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>1.55</v>
-      </c>
       <c r="AP24" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="25">
@@ -3879,61 +3879,61 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.65</v>
+        <v>4.33</v>
       </c>
       <c r="H25" t="n">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="I25" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="J25" t="n">
-        <v>3.26</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>2.96</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>2.24</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="S25" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T25" t="n">
         <v>1.65</v>
       </c>
       <c r="U25" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="V25" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="W25" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="X25" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="Z25" t="n">
         <v>2</v>
@@ -3951,49 +3951,49 @@
         <v>2.66</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AP25" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -4005,134 +4005,134 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FC Penafiel</t>
+          <t>Kasımpaşa</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>CD Mafra</t>
+          <t>İstanbulspor</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V26" t="n">
         <v>2.1</v>
       </c>
-      <c r="I26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.9</v>
-      </c>
       <c r="W26" t="n">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="X26" t="n">
         <v>1.25</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.53</v>
+        <v>1.98</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AA26" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.3</v>
+        <v>0.66</v>
       </c>
       <c r="AD26" t="n">
-        <v>2.84</v>
+        <v>2.11</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AP26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Switzerland Challenge League</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -4144,128 +4144,128 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Dinamo Bucureşti</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>CSM Iaşi</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N27" t="n">
         <v>3</v>
       </c>
-      <c r="H27" t="n">
+      <c r="O27" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T27" t="n">
         <v>2</v>
       </c>
-      <c r="I27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P27" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.5</v>
-      </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="V27" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="W27" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="X27" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.71</v>
+        <v>1.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AB27" t="n">
         <v>1.51</v>
       </c>
       <c r="AC27" t="n">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AD27" t="n">
-        <v>2.95</v>
+        <v>2.78</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="AH27" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AK27" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>2.2</v>
+        <v>1.54</v>
       </c>
       <c r="AM27" t="n">
-        <v>1.62</v>
+        <v>2.42</v>
       </c>
       <c r="AN27" t="n">
-        <v>3</v>
+        <v>1.88</v>
       </c>
       <c r="AO27" t="n">
-        <v>1.35</v>
+        <v>1.92</v>
       </c>
       <c r="AP27" t="n">
-        <v>4.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.2</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="28">
@@ -4287,85 +4287,85 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Wil</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Baden</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.6</v>
+        <v>1.91</v>
       </c>
       <c r="H28" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="I28" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>2.07</v>
+        <v>1.43</v>
       </c>
       <c r="K28" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="L28" t="n">
-        <v>2.82</v>
+        <v>5.3</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="S28" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U28" t="n">
         <v>1.8</v>
       </c>
-      <c r="T28" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V28" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="W28" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="X28" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.72</v>
+        <v>2.59</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AB28" t="n">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>1.27</v>
+        <v>0.99</v>
       </c>
       <c r="AD28" t="n">
-        <v>2.78</v>
+        <v>2.69</v>
       </c>
       <c r="AE28" t="n">
         <v>0</v>
@@ -4389,16 +4389,16 @@
         <v>0</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AP28" t="n">
         <v>0</v>
@@ -4410,7 +4410,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Switzerland Challenge League</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -4422,128 +4422,128 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Wil</t>
+          <t>Dinamo Bucureşti</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Baden</t>
+          <t>CSM Iaşi</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="J29" t="n">
-        <v>1.43</v>
+        <v>2.49</v>
       </c>
       <c r="K29" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="L29" t="n">
-        <v>5.2</v>
+        <v>2.95</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="S29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y29" t="n">
         <v>1.57</v>
       </c>
-      <c r="T29" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X29" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>2.59</v>
-      </c>
       <c r="Z29" t="n">
-        <v>1.4</v>
+        <v>0.71</v>
       </c>
       <c r="AA29" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AB29" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>1.7</v>
       </c>
-      <c r="AC29" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>0</v>
-      </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AP29" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="30">
@@ -4646,13 +4646,13 @@
         <v>2.99</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AH30" t="n">
         <v>0</v>
@@ -4667,16 +4667,16 @@
         <v>0</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AP30" t="n">
         <v>0</v>
@@ -4722,13 +4722,13 @@
         <v>3.75</v>
       </c>
       <c r="J31" t="n">
-        <v>2.21</v>
+        <v>1.98</v>
       </c>
       <c r="K31" t="n">
-        <v>3.4</v>
+        <v>3.63</v>
       </c>
       <c r="L31" t="n">
-        <v>2.82</v>
+        <v>3.02</v>
       </c>
       <c r="M31" t="n">
         <v>1.33</v>
@@ -4749,10 +4749,10 @@
         <v>3.92</v>
       </c>
       <c r="S31" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T31" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U31" t="n">
         <v>1.62</v>
@@ -4843,37 +4843,37 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>VVV</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="K32" t="n">
-        <v>4.09</v>
+        <v>3.87</v>
       </c>
       <c r="L32" t="n">
-        <v>4.02</v>
+        <v>3.59</v>
       </c>
       <c r="M32" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="N32" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O32" t="n">
         <v>1.02</v>
@@ -4882,55 +4882,55 @@
         <v>10</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="R32" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="S32" t="n">
-        <v>1.55</v>
+        <v>1.72</v>
       </c>
       <c r="T32" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="U32" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="V32" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="W32" t="n">
         <v>1.29</v>
       </c>
       <c r="X32" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="Y32" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.6</v>
+        <v>2.33</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="AC32" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="AD32" t="n">
-        <v>3.13</v>
+        <v>3.05</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AH32" t="n">
         <v>0</v>
@@ -4945,16 +4945,16 @@
         <v>0</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AP32" t="n">
         <v>0</v>
@@ -4982,118 +4982,118 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="H33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P33" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T33" t="n">
         <v>2.2</v>
       </c>
-      <c r="I33" t="n">
-        <v>4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N33" t="n">
-        <v>3</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P33" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q33" t="n">
+      <c r="U33" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="W33" t="n">
         <v>1.25</v>
-      </c>
-      <c r="R33" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V33" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.29</v>
       </c>
       <c r="X33" t="n">
         <v>1.29</v>
       </c>
       <c r="Y33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AL33" t="n">
         <v>1.85</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="AM33" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AO33" t="n">
         <v>1.6</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>0</v>
       </c>
       <c r="AP33" t="n">
         <v>0</v>
@@ -5121,94 +5121,94 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ajax II</t>
+          <t>VVV</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.87</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="I34" t="n">
-        <v>5.51</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>1.45</v>
+        <v>1.78</v>
       </c>
       <c r="K34" t="n">
-        <v>5</v>
+        <v>4.09</v>
       </c>
       <c r="L34" t="n">
-        <v>6.2</v>
+        <v>4.02</v>
       </c>
       <c r="M34" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="N34" t="n">
-        <v>4.15</v>
+        <v>3.3</v>
       </c>
       <c r="O34" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P34" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="R34" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="S34" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="T34" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="U34" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="V34" t="n">
-        <v>2.41</v>
+        <v>2.38</v>
       </c>
       <c r="W34" t="n">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="X34" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AB34" t="n">
-        <v>2.04</v>
+        <v>1.64</v>
       </c>
       <c r="AC34" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AD34" t="n">
-        <v>3.52</v>
+        <v>3.13</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AH34" t="n">
         <v>0</v>
@@ -5223,22 +5223,22 @@
         <v>0</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AP34" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="35">
@@ -5260,37 +5260,37 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>AZ II</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H35" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="I35" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J35" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="K35" t="n">
-        <v>4.25</v>
+        <v>4.55</v>
       </c>
       <c r="L35" t="n">
-        <v>4.85</v>
+        <v>5.4</v>
       </c>
       <c r="M35" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="N35" t="n">
-        <v>3.48</v>
+        <v>3.4</v>
       </c>
       <c r="O35" t="n">
         <v>1.02</v>
@@ -5299,55 +5299,55 @@
         <v>10</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="R35" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="S35" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="T35" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="U35" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V35" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W35" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="X35" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AA35" t="n">
-        <v>1.2</v>
+        <v>0.25</v>
       </c>
       <c r="AB35" t="n">
         <v>1.66</v>
       </c>
       <c r="AC35" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AD35" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AH35" t="n">
         <v>0</v>
@@ -5362,16 +5362,16 @@
         <v>0</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AN35" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AP35" t="n">
         <v>0</v>
@@ -5399,31 +5399,31 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.37</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I36" t="n">
-        <v>4.12</v>
+        <v>4.75</v>
       </c>
       <c r="J36" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="K36" t="n">
-        <v>3.9</v>
+        <v>4.25</v>
       </c>
       <c r="L36" t="n">
-        <v>3.8</v>
+        <v>4.85</v>
       </c>
       <c r="M36" t="n">
         <v>1.28</v>
@@ -5432,91 +5432,91 @@
         <v>3.48</v>
       </c>
       <c r="O36" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P36" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q36" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA36" t="n">
         <v>1.2</v>
       </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
+      <c r="AB36" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
         <v>1.6</v>
       </c>
-      <c r="T36" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V36" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X36" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>0</v>
-      </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AP36" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="37">
@@ -5538,95 +5538,95 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>AZ II</t>
+          <t>Ajax II</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="H37" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K37" t="n">
+        <v>5</v>
+      </c>
+      <c r="L37" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="N37" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P37" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z37" t="n">
         <v>2.5</v>
       </c>
-      <c r="I37" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="K37" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="L37" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="N37" t="n">
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG37" t="n">
         <v>3.4</v>
       </c>
-      <c r="O37" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P37" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V37" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="X37" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0</v>
-      </c>
       <c r="AH37" t="n">
         <v>0</v>
       </c>
@@ -5640,16 +5640,16 @@
         <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AN37" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AO37" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AP37" t="n">
         <v>0</v>
@@ -5831,40 +5831,40 @@
         <v>2.4</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J39" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="K39" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>3.54</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="S39" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="T39" t="n">
-        <v>2.22</v>
+        <v>2.39</v>
       </c>
       <c r="U39" t="n">
         <v>1.67</v>
@@ -5924,10 +5924,10 @@
         <v>0</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AO39" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AP39" t="n">
         <v>0</v>
@@ -5964,46 +5964,46 @@
         </is>
       </c>
       <c r="G40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H40" t="n">
         <v>2.25</v>
       </c>
-      <c r="H40" t="n">
-        <v>2.3</v>
-      </c>
       <c r="I40" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="K40" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L40" t="n">
         <v>3.75</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="S40" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="T40" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U40" t="n">
         <v>1.67</v>
@@ -6036,13 +6036,13 @@
         <v>3.16</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="AH40" t="n">
         <v>0</v>
@@ -6051,34 +6051,34 @@
         <v>0</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AK40" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AM40" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AN40" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AP40" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Germany Bundesliga</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
@@ -6090,65 +6090,65 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="I41" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J41" t="n">
-        <v>2.81</v>
+        <v>2.28</v>
       </c>
       <c r="K41" t="n">
-        <v>3.1</v>
+        <v>3.43</v>
       </c>
       <c r="L41" t="n">
-        <v>2.29</v>
+        <v>2.67</v>
       </c>
       <c r="M41" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="N41" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="O41" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="P41" t="n">
-        <v>9.949999999999999</v>
+        <v>13</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="R41" t="n">
-        <v>3.22</v>
+        <v>4</v>
       </c>
       <c r="S41" t="n">
-        <v>2.07</v>
+        <v>1.8</v>
       </c>
       <c r="T41" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="U41" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="V41" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W41" t="n">
         <v>1.45</v>
@@ -6157,67 +6157,67 @@
         <v>1.25</v>
       </c>
       <c r="Y41" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO41" t="n">
         <v>1.42</v>
       </c>
-      <c r="Z41" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>1.47</v>
-      </c>
       <c r="AP41" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
@@ -6229,38 +6229,38 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ŁKS Łódź</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H42" t="n">
         <v>2.05</v>
       </c>
       <c r="I42" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.57</v>
+        <v>2.8</v>
       </c>
       <c r="K42" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="L42" t="n">
-        <v>2.65</v>
+        <v>2.36</v>
       </c>
       <c r="M42" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="N42" t="n">
         <v>2.6</v>
@@ -6269,94 +6269,94 @@
         <v>1.07</v>
       </c>
       <c r="P42" t="n">
-        <v>8.5</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="R42" t="n">
-        <v>3.1</v>
+        <v>3.22</v>
       </c>
       <c r="S42" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="U42" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AE42" t="n">
         <v>1.95</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X42" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>1.82</v>
       </c>
       <c r="AF42" t="n">
         <v>8</v>
       </c>
       <c r="AG42" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AH42" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AI42" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AK42" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="AL42" t="n">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="AM42" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="AN42" t="n">
-        <v>2.23</v>
+        <v>2.4</v>
       </c>
       <c r="AO42" t="n">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="AP42" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Germany Bundesliga</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
@@ -6368,128 +6368,128 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>ŁKS Łódź</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H43" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="I43" t="n">
         <v>3.25</v>
       </c>
       <c r="J43" t="n">
-        <v>2.4</v>
+        <v>2.66</v>
       </c>
       <c r="K43" t="n">
         <v>3.3</v>
       </c>
       <c r="L43" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="N43" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AP43" t="n">
         <v>3</v>
       </c>
-      <c r="O43" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P43" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="T43" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V43" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X43" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>3.35</v>
-      </c>
       <c r="AQ43" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="44">
@@ -6511,37 +6511,37 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Cork City</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>UCD</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="I44" t="n">
-        <v>13</v>
+        <v>2.1</v>
       </c>
       <c r="J44" t="n">
-        <v>1.12</v>
+        <v>5.8</v>
       </c>
       <c r="K44" t="n">
-        <v>7.73</v>
+        <v>4.4</v>
       </c>
       <c r="L44" t="n">
-        <v>17.62</v>
+        <v>1.46</v>
       </c>
       <c r="M44" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="N44" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="O44" t="n">
         <v>1.01</v>
@@ -6550,85 +6550,85 @@
         <v>12</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S44" t="n">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="T44" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="U44" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="V44" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W44" t="n">
-        <v>1.01</v>
+        <v>2.35</v>
       </c>
       <c r="X44" t="n">
-        <v>1.03</v>
+        <v>1.17</v>
       </c>
       <c r="Y44" t="n">
-        <v>4.75</v>
+        <v>1.12</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.82</v>
+        <v>1.31</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.12</v>
+        <v>1.71</v>
       </c>
       <c r="AB44" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AH44" t="n">
         <v>1.23</v>
       </c>
-      <c r="AC44" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>0</v>
-      </c>
       <c r="AI44" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AK44" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AL44" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AM44" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AN44" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AO44" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AP44" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="45">
@@ -6650,130 +6650,130 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="H45" t="n">
-        <v>2.3</v>
+        <v>2.31</v>
       </c>
       <c r="I45" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="J45" t="n">
-        <v>5.6</v>
+        <v>2.73</v>
       </c>
       <c r="K45" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="L45" t="n">
-        <v>1.47</v>
+        <v>2.31</v>
       </c>
       <c r="M45" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="N45" t="n">
-        <v>3.05</v>
+        <v>3.23</v>
       </c>
       <c r="O45" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="P45" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="R45" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="S45" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="T45" t="n">
         <v>2</v>
       </c>
       <c r="U45" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="V45" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W45" t="n">
-        <v>2.35</v>
+        <v>1.48</v>
       </c>
       <c r="X45" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.12</v>
+        <v>1.4</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.31</v>
+        <v>1.88</v>
       </c>
       <c r="AA45" t="n">
-        <v>1.71</v>
+        <v>1.41</v>
       </c>
       <c r="AB45" t="n">
-        <v>1.2</v>
+        <v>1.56</v>
       </c>
       <c r="AC45" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="AD45" t="n">
-        <v>2.52</v>
+        <v>2.8</v>
       </c>
       <c r="AE45" t="n">
-        <v>4.86</v>
+        <v>2.2</v>
       </c>
       <c r="AF45" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG45" t="n">
-        <v>1.26</v>
+        <v>1.91</v>
       </c>
       <c r="AH45" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AI45" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AK45" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AL45" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AM45" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AN45" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AO45" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AP45" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Wales Welsh Premier League</t>
+          <t>Republic of Ireland Premier Division</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
@@ -6785,38 +6785,38 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Connah's Quay</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>UCD</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="H46" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J46" t="n">
-        <v>1.44</v>
+        <v>1.12</v>
       </c>
       <c r="K46" t="n">
-        <v>4.6</v>
+        <v>7.8</v>
       </c>
       <c r="L46" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M46" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="N46" t="n">
         <v>3.75</v>
@@ -6825,94 +6825,94 @@
         <v>1.01</v>
       </c>
       <c r="P46" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="R46" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="S46" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ46" t="n">
         <v>1.58</v>
       </c>
-      <c r="T46" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V46" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="W46" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X46" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>0</v>
-      </c>
       <c r="AK46" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AL46" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AM46" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AN46" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AO46" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AP46" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Republic of Ireland Premier Division</t>
+          <t>Wales Welsh Premier League</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
@@ -6924,134 +6924,134 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Connah's Quay</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.3</v>
+        <v>1.91</v>
       </c>
       <c r="H47" t="n">
-        <v>2.31</v>
+        <v>2.6</v>
       </c>
       <c r="I47" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="J47" t="n">
-        <v>2.83</v>
+        <v>1.33</v>
       </c>
       <c r="K47" t="n">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="L47" t="n">
-        <v>2.29</v>
+        <v>6.5</v>
       </c>
       <c r="M47" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="N47" t="n">
-        <v>3.23</v>
+        <v>3.75</v>
       </c>
       <c r="O47" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="P47" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="R47" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="S47" t="n">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="T47" t="n">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="U47" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="V47" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="W47" t="n">
-        <v>1.48</v>
+        <v>1.11</v>
       </c>
       <c r="X47" t="n">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.88</v>
+        <v>2.67</v>
       </c>
       <c r="AA47" t="n">
-        <v>1.41</v>
+        <v>1.67</v>
       </c>
       <c r="AB47" t="n">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AC47" t="n">
-        <v>1.24</v>
+        <v>1.73</v>
       </c>
       <c r="AD47" t="n">
-        <v>2.8</v>
+        <v>3.56</v>
       </c>
       <c r="AE47" t="n">
-        <v>2.2</v>
+        <v>1.32</v>
       </c>
       <c r="AF47" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG47" t="n">
-        <v>1.91</v>
+        <v>4.57</v>
       </c>
       <c r="AH47" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AI47" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AK47" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AL47" t="n">
-        <v>1.85</v>
+        <v>1.52</v>
       </c>
       <c r="AM47" t="n">
-        <v>1.95</v>
+        <v>2.33</v>
       </c>
       <c r="AN47" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AO47" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AP47" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Wales Welsh Premier League</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
@@ -7063,134 +7063,134 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sint-Truiden</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>RWDM</t>
+          <t>Aberystwyth Town</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="H48" t="n">
-        <v>2.29</v>
+        <v>2.6</v>
       </c>
       <c r="I48" t="n">
-        <v>4.25</v>
+        <v>6.5</v>
       </c>
       <c r="J48" t="n">
-        <v>1.95</v>
+        <v>1.22</v>
       </c>
       <c r="K48" t="n">
-        <v>3.32</v>
+        <v>5.5</v>
       </c>
       <c r="L48" t="n">
-        <v>3.48</v>
+        <v>8.5</v>
       </c>
       <c r="M48" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="N48" t="n">
-        <v>3.22</v>
+        <v>3.5</v>
       </c>
       <c r="O48" t="n">
         <v>1.01</v>
       </c>
       <c r="P48" t="n">
-        <v>9.800000000000001</v>
+        <v>17</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="R48" t="n">
-        <v>3.98</v>
+        <v>4.5</v>
       </c>
       <c r="S48" t="n">
-        <v>1.74</v>
+        <v>1.53</v>
       </c>
       <c r="T48" t="n">
-        <v>1.86</v>
+        <v>2.35</v>
       </c>
       <c r="U48" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="V48" t="n">
-        <v>2.19</v>
+        <v>2.03</v>
       </c>
       <c r="W48" t="n">
-        <v>1.26</v>
+        <v>1.07</v>
       </c>
       <c r="X48" t="n">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.9</v>
+        <v>2.88</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="AA48" t="n">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AB48" t="n">
-        <v>1.39</v>
+        <v>1.67</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="AD48" t="n">
-        <v>2.34</v>
+        <v>2.55</v>
       </c>
       <c r="AE48" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AF48" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AG48" t="n">
-        <v>4.6</v>
+        <v>4.66</v>
       </c>
       <c r="AH48" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AI48" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AK48" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AL48" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AM48" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AN48" t="n">
-        <v>2.35</v>
+        <v>2.12</v>
       </c>
       <c r="AO48" t="n">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="AP48" t="n">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
@@ -7202,134 +7202,134 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Sint-Truiden</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>RWDM</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H49" t="n">
-        <v>2.1</v>
+        <v>2.29</v>
       </c>
       <c r="I49" t="n">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="J49" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="K49" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="L49" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="M49" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="N49" t="n">
-        <v>2.63</v>
+        <v>3.22</v>
       </c>
       <c r="O49" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="P49" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="R49" t="n">
-        <v>3</v>
+        <v>3.98</v>
       </c>
       <c r="S49" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="T49" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="V49" t="n">
-        <v>1.75</v>
+        <v>2.19</v>
       </c>
       <c r="W49" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="X49" t="n">
         <v>1.26</v>
       </c>
       <c r="Y49" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM49" t="n">
         <v>2</v>
       </c>
-      <c r="Z49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG49" t="n">
+      <c r="AN49" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP49" t="n">
         <v>3.2</v>
       </c>
-      <c r="AH49" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AP49" t="n">
-        <v>3.74</v>
-      </c>
       <c r="AQ49" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Wales Welsh Premier League</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
@@ -7341,134 +7341,134 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Aberystwyth Town</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H50" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="I50" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="J50" t="n">
-        <v>1.3</v>
+        <v>1.83</v>
       </c>
       <c r="K50" t="n">
-        <v>4.75</v>
+        <v>3.15</v>
       </c>
       <c r="L50" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P50" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF50" t="n">
         <v>7</v>
       </c>
-      <c r="M50" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="N50" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P50" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R50" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="T50" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="U50" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V50" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="W50" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="X50" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>0</v>
-      </c>
       <c r="AG50" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AI50" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AJ50" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AK50" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AL50" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AM50" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AN50" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AO50" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AP50" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Republic of Ireland Premier Division</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
@@ -7480,134 +7480,134 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SD Eibar</t>
+          <t>St Patrick's Athl.</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Real Valladolid</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="H51" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="I51" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="J51" t="n">
-        <v>1.97</v>
+        <v>3</v>
       </c>
       <c r="K51" t="n">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="L51" t="n">
-        <v>3.06</v>
+        <v>2.08</v>
       </c>
       <c r="M51" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="N51" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="O51" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="P51" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="R51" t="n">
-        <v>2.62</v>
+        <v>3.4</v>
       </c>
       <c r="S51" t="n">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="T51" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="U51" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V51" t="n">
         <v>2</v>
       </c>
-      <c r="V51" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W51" t="n">
-        <v>1.22</v>
+        <v>1.68</v>
       </c>
       <c r="X51" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="Z51" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AA51" t="n">
-        <v>1.2</v>
+        <v>1.63</v>
       </c>
       <c r="AB51" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="AC51" t="n">
-        <v>1.15</v>
+        <v>1.6</v>
       </c>
       <c r="AD51" t="n">
-        <v>2.58</v>
+        <v>3.11</v>
       </c>
       <c r="AE51" t="n">
-        <v>1.59</v>
+        <v>2.63</v>
       </c>
       <c r="AF51" t="n">
         <v>8</v>
       </c>
       <c r="AG51" t="n">
-        <v>2.9</v>
+        <v>1.69</v>
       </c>
       <c r="AH51" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AI51" t="n">
-        <v>3</v>
+        <v>3.86</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="AK51" t="n">
-        <v>2.15</v>
+        <v>2.72</v>
       </c>
       <c r="AL51" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AM51" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AN51" t="n">
-        <v>2.75</v>
+        <v>2.16</v>
       </c>
       <c r="AO51" t="n">
-        <v>1.37</v>
+        <v>1.62</v>
       </c>
       <c r="AP51" t="n">
-        <v>4</v>
+        <v>2.84</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
@@ -7619,125 +7619,125 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Girona FC</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Celta de Vigo</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.75</v>
+        <v>2.38</v>
       </c>
       <c r="H52" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L52" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P52" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V52" t="n">
         <v>2.1</v>
       </c>
-      <c r="I52" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N52" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P52" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R52" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S52" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T52" t="n">
+      <c r="W52" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE52" t="n">
         <v>1.8</v>
-      </c>
-      <c r="U52" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V52" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W52" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="X52" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>2.5</v>
       </c>
       <c r="AF52" t="n">
         <v>7.5</v>
       </c>
       <c r="AG52" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM52" t="n">
         <v>1.7</v>
       </c>
-      <c r="AH52" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AM52" t="n">
-        <v>1.67</v>
-      </c>
       <c r="AN52" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="AO52" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AP52" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.22</v>
@@ -7746,7 +7746,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Republic of Ireland Premier Division</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
@@ -7758,134 +7758,134 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>St Patrick's Athl.</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="H53" t="n">
         <v>2.1</v>
       </c>
       <c r="I53" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="J53" t="n">
-        <v>2.92</v>
+        <v>3.9</v>
       </c>
       <c r="K53" t="n">
-        <v>3.06</v>
+        <v>3.1</v>
       </c>
       <c r="L53" t="n">
-        <v>2.17</v>
+        <v>1.9</v>
       </c>
       <c r="M53" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="N53" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="O53" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q53" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="X53" t="n">
         <v>1.3</v>
       </c>
-      <c r="R53" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S53" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U53" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V53" t="n">
-        <v>2</v>
-      </c>
-      <c r="W53" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="X53" t="n">
-        <v>1.25</v>
-      </c>
       <c r="Y53" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="Z53" t="n">
-        <v>1.94</v>
+        <v>0.25</v>
       </c>
       <c r="AA53" t="n">
-        <v>1.63</v>
+        <v>2.5</v>
       </c>
       <c r="AB53" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="AC53" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="AD53" t="n">
-        <v>3.11</v>
+        <v>3.01</v>
       </c>
       <c r="AE53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN53" t="n">
         <v>2.63</v>
       </c>
-      <c r="AF53" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>0</v>
-      </c>
       <c r="AO53" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AP53" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
@@ -7897,134 +7897,134 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>SD Eibar</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Real Valladolid</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.33</v>
+        <v>2.6</v>
       </c>
       <c r="H54" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="I54" t="n">
-        <v>2.38</v>
+        <v>4.5</v>
       </c>
       <c r="J54" t="n">
-        <v>3.05</v>
+        <v>2</v>
       </c>
       <c r="K54" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L54" t="n">
-        <v>2.14</v>
+        <v>3.45</v>
       </c>
       <c r="M54" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="N54" t="n">
-        <v>3.25</v>
+        <v>2.62</v>
       </c>
       <c r="O54" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="P54" t="n">
-        <v>14</v>
+        <v>6.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="R54" t="n">
-        <v>4.15</v>
+        <v>2.62</v>
       </c>
       <c r="S54" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="T54" t="n">
-        <v>2.01</v>
+        <v>1.53</v>
       </c>
       <c r="U54" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="W54" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL54" t="n">
         <v>2.05</v>
       </c>
-      <c r="X54" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AH54" t="n">
+      <c r="AM54" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ54" t="n">
         <v>1.2</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AP54" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AQ54" t="n">
-        <v>1.38</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
@@ -8036,35 +8036,35 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Girona FC</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Celta de Vigo</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.38</v>
+        <v>4.33</v>
       </c>
       <c r="H55" t="n">
         <v>2.3</v>
       </c>
       <c r="I55" t="n">
-        <v>4.5</v>
+        <v>2.38</v>
       </c>
       <c r="J55" t="n">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="K55" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L55" t="n">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="M55" t="n">
         <v>1.33</v>
@@ -8073,22 +8073,22 @@
         <v>3.25</v>
       </c>
       <c r="O55" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P55" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q55" t="n">
         <v>1.25</v>
       </c>
       <c r="R55" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="S55" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T55" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="U55" t="n">
         <v>1.67</v>
@@ -8097,67 +8097,67 @@
         <v>2.1</v>
       </c>
       <c r="W55" t="n">
-        <v>1.22</v>
+        <v>2.05</v>
       </c>
       <c r="X55" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y55" t="n">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="Z55" t="n">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="AA55" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="AB55" t="n">
-        <v>1.73</v>
+        <v>1.38</v>
       </c>
       <c r="AC55" t="n">
-        <v>1.51</v>
+        <v>1.78</v>
       </c>
       <c r="AD55" t="n">
-        <v>3.24</v>
+        <v>3.16</v>
       </c>
       <c r="AE55" t="n">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="AF55" t="n">
         <v>7.5</v>
       </c>
       <c r="AG55" t="n">
-        <v>2.33</v>
+        <v>1.76</v>
       </c>
       <c r="AH55" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AI55" t="n">
-        <v>2.85</v>
+        <v>3.7</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="AK55" t="n">
-        <v>2.14</v>
+        <v>2.65</v>
       </c>
       <c r="AL55" t="n">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="AM55" t="n">
-        <v>1.7</v>
+        <v>2.02</v>
       </c>
       <c r="AN55" t="n">
-        <v>2.6</v>
+        <v>2.08</v>
       </c>
       <c r="AO55" t="n">
-        <v>1.4</v>
+        <v>1.64</v>
       </c>
       <c r="AP55" t="n">
-        <v>3.5</v>
+        <v>2.65</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="56">
@@ -8197,13 +8197,13 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="K56" t="n">
-        <v>3.31</v>
+        <v>3.3</v>
       </c>
       <c r="L56" t="n">
-        <v>2.89</v>
+        <v>2.85</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -8224,10 +8224,10 @@
         <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="T56" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="U56" t="n">
         <v>0</v>
@@ -8302,7 +8302,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Uruguay Primera División</t>
+          <t>Brazil Serie A</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
@@ -8314,16 +8314,16 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Peñarol</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -8384,19 +8384,19 @@
         <v>0</v>
       </c>
       <c r="Z57" t="n">
-        <v>2.29</v>
+        <v>1.92</v>
       </c>
       <c r="AA57" t="n">
-        <v>1.79</v>
+        <v>1.5</v>
       </c>
       <c r="AB57" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AC57" t="n">
-        <v>1.47</v>
+        <v>1.66</v>
       </c>
       <c r="AD57" t="n">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="AE57" t="n">
         <v>0</v>
@@ -8457,12 +8457,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -8523,19 +8523,19 @@
         <v>0</v>
       </c>
       <c r="Z58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AB58" t="n">
         <v>1.92</v>
       </c>
-      <c r="AA58" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>1.78</v>
-      </c>
       <c r="AC58" t="n">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="AD58" t="n">
-        <v>3.44</v>
+        <v>3.39</v>
       </c>
       <c r="AE58" t="n">
         <v>0</v>
@@ -8580,7 +8580,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Brazil Serie A</t>
+          <t>Brazil Serie B</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
@@ -8592,134 +8592,134 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Ceará</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="R59" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="W59" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X59" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Y59" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="Z59" t="n">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AA59" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AB59" t="n">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AC59" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AL59" t="n">
         <v>1.47</v>
       </c>
-      <c r="AD59" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>0</v>
-      </c>
       <c r="AM59" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AN59" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AO59" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AP59" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Brazil Serie B</t>
+          <t>Uruguay Primera División</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
@@ -8731,89 +8731,89 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Ceará</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Peñarol</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V60" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="W60" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="Y60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AC60" t="n">
         <v>1.47</v>
       </c>
-      <c r="Z60" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>1.31</v>
-      </c>
       <c r="AD60" t="n">
-        <v>2.94</v>
+        <v>3.22</v>
       </c>
       <c r="AE60" t="n">
         <v>0</v>
@@ -8831,28 +8831,28 @@
         <v>0</v>
       </c>
       <c r="AJ60" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AK60" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AL60" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AM60" t="n">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="AN60" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AO60" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -8874,12 +8874,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -8940,19 +8940,19 @@
         <v>0</v>
       </c>
       <c r="Z61" t="n">
-        <v>2.4</v>
+        <v>1.64</v>
       </c>
       <c r="AA61" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AB61" t="n">
-        <v>1.8</v>
+        <v>1.39</v>
       </c>
       <c r="AC61" t="n">
-        <v>1.38</v>
+        <v>1.1</v>
       </c>
       <c r="AD61" t="n">
-        <v>3.18</v>
+        <v>2.49</v>
       </c>
       <c r="AE61" t="n">
         <v>0</v>
@@ -9013,12 +9013,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Fénix</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Deportivo Maldonado</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -9079,19 +9079,19 @@
         <v>0</v>
       </c>
       <c r="Z62" t="n">
-        <v>1.64</v>
+        <v>1.07</v>
       </c>
       <c r="AA62" t="n">
-        <v>1.07</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB62" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="AC62" t="n">
-        <v>1.1</v>
+        <v>1.32</v>
       </c>
       <c r="AD62" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="AE62" t="n">
         <v>0</v>
@@ -9569,12 +9569,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -9635,19 +9635,19 @@
         <v>0</v>
       </c>
       <c r="Z66" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA66" t="n">
         <v>1</v>
       </c>
-      <c r="AA66" t="n">
-        <v>0.93</v>
-      </c>
       <c r="AB66" t="n">
-        <v>1.32</v>
+        <v>1.8</v>
       </c>
       <c r="AC66" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AD66" t="n">
-        <v>2.79</v>
+        <v>3.18</v>
       </c>
       <c r="AE66" t="n">
         <v>0</v>
@@ -9708,12 +9708,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Fénix</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Deportivo Maldonado</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -9774,19 +9774,19 @@
         <v>0</v>
       </c>
       <c r="Z67" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="AB67" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AC67" t="n">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="AD67" t="n">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="AE67" t="n">
         <v>0</v>
@@ -9865,13 +9865,13 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2.59</v>
+        <v>2.7</v>
       </c>
       <c r="K68" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="L68" t="n">
-        <v>2.91</v>
+        <v>2.5</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>2</v>
       </c>
       <c r="T68" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="U68" t="n">
         <v>0</v>
@@ -9965,6 +9965,284 @@
       </c>
       <c r="AQ68" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>34</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K69" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L69" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P69" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V69" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X69" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>34</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I70" t="n">
+        <v>6</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L70" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P70" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V70" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X70" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-10-27_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-27_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -694,10 +694,10 @@
         <v>1.6</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>4.55</v>
+        <v>4.8</v>
       </c>
       <c r="M2" t="n">
         <v>1.36</v>
@@ -718,10 +718,10 @@
         <v>3.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="T2" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="U2" t="n">
         <v>1.82</v>
@@ -739,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="n">
         <v>1.13</v>
@@ -830,13 +830,13 @@
         <v>4.33</v>
       </c>
       <c r="J3" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="K3" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M3" t="n">
         <v>1.5</v>
@@ -878,10 +878,10 @@
         <v>1.65</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AB3" t="n">
         <v>1.37</v>
@@ -893,37 +893,37 @@
         <v>2.74</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>5.45</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
@@ -969,13 +969,13 @@
         <v>6.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.44</v>
@@ -1017,10 +1017,10 @@
         <v>2.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AB4" t="n">
         <v>1.67</v>
@@ -1099,22 +1099,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="K5" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="M5" t="n">
         <v>1.43</v>
@@ -1135,16 +1135,16 @@
         <v>3.22</v>
       </c>
       <c r="S5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.2</v>
       </c>
-      <c r="T5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.89</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
         <v>1.19</v>
@@ -1156,10 +1156,10 @@
         <v>1.95</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="n">
         <v>1.58</v>
@@ -1171,13 +1171,13 @@
         <v>2.53</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AF5" t="n">
         <v>9</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.71</v>
+        <v>2.83</v>
       </c>
       <c r="AH5" t="n">
         <v>1.24</v>
@@ -1247,13 +1247,13 @@
         <v>3.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="M6" t="n">
         <v>1.5</v>
@@ -1274,10 +1274,10 @@
         <v>2.46</v>
       </c>
       <c r="S6" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="U6" t="n">
         <v>2.12</v>
@@ -1295,10 +1295,10 @@
         <v>1.33</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AB6" t="n">
         <v>1.35</v>
@@ -1389,10 +1389,10 @@
         <v>1.55</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>4.92</v>
+        <v>5.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.32</v>
@@ -1413,10 +1413,10 @@
         <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="T7" t="n">
-        <v>2.07</v>
+        <v>2.28</v>
       </c>
       <c r="U7" t="n">
         <v>1.75</v>
@@ -1434,10 +1434,10 @@
         <v>2.35</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AB7" t="n">
         <v>1.71</v>
@@ -1449,19 +1449,19 @@
         <v>3.24</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ7" t="n">
         <v>1.39</v>
@@ -1525,13 +1525,13 @@
         <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="K8" t="n">
-        <v>4.05</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.25</v>
@@ -1552,10 +1552,10 @@
         <v>4.2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="T8" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="U8" t="n">
         <v>1.53</v>
@@ -1573,10 +1573,10 @@
         <v>1.95</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AB8" t="n">
         <v>2.14</v>
@@ -1630,7 +1630,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Estonia Meistriliiga</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1642,89 +1642,89 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Vaprus</t>
+          <t>Javor Ivanjica</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Harju Jalgpallikool</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="H9" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="L9" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="N9" t="n">
-        <v>3.34</v>
+        <v>2.77</v>
       </c>
       <c r="O9" t="n">
         <v>1.02</v>
       </c>
       <c r="P9" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="R9" t="n">
-        <v>4.37</v>
+        <v>3.2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.75</v>
+        <v>2.23</v>
       </c>
       <c r="T9" t="n">
-        <v>1.96</v>
+        <v>1.58</v>
       </c>
       <c r="U9" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y9" t="n">
         <v>1.59</v>
       </c>
-      <c r="V9" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1.78</v>
-      </c>
       <c r="Z9" t="n">
-        <v>1.06</v>
+        <v>2.25</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AB9" t="n">
         <v>1.18</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.99</v>
+        <v>1.26</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.17</v>
+        <v>2.44</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
@@ -1769,7 +1769,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Estonia Meistriliiga</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1781,128 +1781,128 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tammeka</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tallinna Kalev</t>
+          <t>Puszcza Niepołomice</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L10" t="n">
         <v>4</v>
       </c>
-      <c r="H10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R10" t="n">
         <v>3.5</v>
       </c>
-      <c r="L10" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="S10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD10" t="n">
         <v>3.04</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P10" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>2.97</v>
-      </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="11">
@@ -1990,10 +1990,10 @@
         <v>1.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AB11" t="n">
         <v>1.37</v>
@@ -2047,7 +2047,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Estonia Meistriliiga</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -2059,89 +2059,89 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Beroe</t>
+          <t>Tammeka</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Levski Sofia</t>
+          <t>Tallinna Kalev</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="J12" t="n">
-        <v>6.2</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.43</v>
+        <v>1.91</v>
       </c>
       <c r="M12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AC12" t="n">
         <v>1.44</v>
       </c>
-      <c r="N12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P12" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1.7</v>
-      </c>
       <c r="AD12" t="n">
-        <v>3.06</v>
+        <v>2.97</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
@@ -2186,7 +2186,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Estonia Meistriliiga</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -2198,134 +2198,134 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Vaprus</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Puszcza Niepołomice</t>
+          <t>Harju Jalgpallikool</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="I13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.86</v>
+        <v>1.62</v>
       </c>
       <c r="K13" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="N13" t="n">
-        <v>2.8</v>
+        <v>3.34</v>
       </c>
       <c r="O13" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="P13" t="n">
-        <v>8.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="R13" t="n">
-        <v>3.5</v>
+        <v>4.37</v>
       </c>
       <c r="S13" t="n">
-        <v>1.97</v>
+        <v>1.74</v>
       </c>
       <c r="T13" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="U13" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y13" t="n">
         <v>1.78</v>
       </c>
-      <c r="V13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W13" t="n">
+      <c r="Z13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AB13" t="n">
         <v>1.18</v>
       </c>
-      <c r="X13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1.68</v>
-      </c>
       <c r="AC13" t="n">
-        <v>1.36</v>
+        <v>0.99</v>
       </c>
       <c r="AD13" t="n">
-        <v>3.04</v>
+        <v>2.17</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>3.01</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -2337,89 +2337,89 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Javor Ivanjica</t>
+          <t>Beroe</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Levski Sofia</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.88</v>
+        <v>7</v>
       </c>
       <c r="H14" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.93</v>
+        <v>5.5</v>
       </c>
       <c r="K14" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="N14" t="n">
-        <v>2.77</v>
+        <v>2.63</v>
       </c>
       <c r="O14" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P14" t="n">
-        <v>8.6</v>
+        <v>7.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R14" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="S14" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="U14" t="n">
-        <v>1.74</v>
+        <v>2.25</v>
       </c>
       <c r="V14" t="n">
-        <v>2.04</v>
+        <v>1.57</v>
       </c>
       <c r="W14" t="n">
-        <v>1.33</v>
+        <v>2.6</v>
       </c>
       <c r="X14" t="n">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.59</v>
+        <v>1.06</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="AA14" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.26</v>
+        <v>1.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>2.44</v>
+        <v>3.06</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
@@ -2480,94 +2480,94 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Leoben</t>
+          <t>Lafnitz</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Admira</t>
+          <t>Sturm Graz II</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="H15" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="K15" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="N15" t="n">
-        <v>2.95</v>
+        <v>3.45</v>
       </c>
       <c r="O15" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P15" t="n">
         <v>10</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="R15" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="S15" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="T15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y15" t="n">
         <v>2</v>
       </c>
-      <c r="U15" t="n">
+      <c r="Z15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="n">
         <v>1.62</v>
       </c>
-      <c r="V15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1.52</v>
-      </c>
       <c r="AC15" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.9</v>
+        <v>2.99</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
@@ -2582,22 +2582,22 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="16">
@@ -2619,55 +2619,55 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dornbirn</t>
+          <t>Amstetten</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Kapfenberger SV</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I16" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.78</v>
+        <v>2.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="N16" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="O16" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Q16" t="n">
         <v>1.22</v>
       </c>
       <c r="R16" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="S16" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="T16" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="U16" t="n">
         <v>1.73</v>
@@ -2676,37 +2676,37 @@
         <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>1.82</v>
+        <v>1.41</v>
       </c>
       <c r="X16" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.23</v>
+        <v>1.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.69</v>
+        <v>1.35</v>
       </c>
       <c r="AD16" t="n">
-        <v>2.99</v>
+        <v>2.78</v>
       </c>
       <c r="AE16" t="n">
-        <v>2.42</v>
+        <v>1.71</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG16" t="n">
-        <v>1.71</v>
+        <v>2.49</v>
       </c>
       <c r="AH16" t="n">
         <v>0</v>
@@ -2715,28 +2715,28 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AK16" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="AL16" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="AM16" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="AN16" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="17">
@@ -2758,31 +2758,31 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lafnitz</t>
+          <t>Horn</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Sturm Graz II</t>
+          <t>Grazer AK</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="H17" t="n">
         <v>2.4</v>
       </c>
       <c r="I17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K17" t="n">
         <v>4</v>
       </c>
-      <c r="J17" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L17" t="n">
-        <v>3.7</v>
+        <v>1.62</v>
       </c>
       <c r="M17" t="n">
         <v>1.27</v>
@@ -2794,88 +2794,88 @@
         <v>1.03</v>
       </c>
       <c r="P17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="R17" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="S17" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="T17" t="n">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="U17" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="V17" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="W17" t="n">
-        <v>1.18</v>
+        <v>2.1</v>
       </c>
       <c r="X17" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="Y17" t="n">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="Z17" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>1</v>
+        <v>2.17</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.99</v>
+        <v>3.17</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AP17" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="18">
@@ -2897,55 +2897,55 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Horn</t>
+          <t>Leoben</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Grazer AK</t>
+          <t>Admira</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.5</v>
+        <v>2.88</v>
       </c>
       <c r="H18" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="I18" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="J18" t="n">
-        <v>4.35</v>
+        <v>2.3</v>
       </c>
       <c r="K18" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="N18" t="n">
-        <v>3.45</v>
+        <v>2.95</v>
       </c>
       <c r="O18" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="R18" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="S18" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="T18" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="U18" t="n">
         <v>1.67</v>
@@ -2954,67 +2954,67 @@
         <v>2.1</v>
       </c>
       <c r="W18" t="n">
-        <v>2.1</v>
+        <v>1.33</v>
       </c>
       <c r="X18" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="Y18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z18" t="n">
         <v>1.17</v>
       </c>
-      <c r="Z18" t="n">
-        <v>2.4</v>
-      </c>
       <c r="AA18" t="n">
-        <v>2.17</v>
+        <v>0.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.72</v>
+        <v>1.52</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AD18" t="n">
-        <v>3.17</v>
+        <v>2.9</v>
       </c>
       <c r="AE18" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="AI18" t="n">
-        <v>3.56</v>
+        <v>3.15</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="AK18" t="n">
-        <v>2.51</v>
+        <v>2.25</v>
       </c>
       <c r="AL18" t="n">
-        <v>1.83</v>
+        <v>2.07</v>
       </c>
       <c r="AM18" t="n">
-        <v>1.97</v>
+        <v>1.67</v>
       </c>
       <c r="AN18" t="n">
-        <v>2.26</v>
+        <v>2.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AP18" t="n">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3036,95 +3036,95 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Amstetten</t>
+          <t>Dornbirn</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kapfenberger SV</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="H19" t="n">
         <v>2.2</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="J19" t="n">
-        <v>2.43</v>
+        <v>4.2</v>
       </c>
       <c r="K19" t="n">
         <v>3.6</v>
       </c>
       <c r="L19" t="n">
-        <v>2.43</v>
+        <v>1.7</v>
       </c>
       <c r="M19" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="N19" t="n">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="O19" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Q19" t="n">
         <v>1.22</v>
       </c>
       <c r="R19" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="S19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AC19" t="n">
         <v>1.69</v>
       </c>
-      <c r="T19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>1.35</v>
-      </c>
       <c r="AD19" t="n">
-        <v>2.78</v>
+        <v>2.99</v>
       </c>
       <c r="AE19" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG19" t="n">
         <v>1.71</v>
       </c>
-      <c r="AF19" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>2.49</v>
-      </c>
       <c r="AH19" t="n">
         <v>0</v>
       </c>
@@ -3132,28 +3132,28 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AK19" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="AM19" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="AN19" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="AO19" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="AP19" t="n">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="20">
@@ -3193,13 +3193,13 @@
         <v>4.75</v>
       </c>
       <c r="J20" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L20" t="n">
-        <v>3.73</v>
+        <v>4.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.29</v>
@@ -3220,10 +3220,10 @@
         <v>4.75</v>
       </c>
       <c r="S20" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="T20" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="U20" t="n">
         <v>1.57</v>
@@ -3332,13 +3332,13 @@
         <v>2.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K21" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="M21" t="n">
         <v>1.29</v>
@@ -3359,10 +3359,10 @@
         <v>4.5</v>
       </c>
       <c r="S21" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="T21" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="U21" t="n">
         <v>1.57</v>
@@ -3437,7 +3437,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -3449,134 +3449,134 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Kasımpaşa</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>İstanbulspor</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V22" t="n">
         <v>2.1</v>
       </c>
-      <c r="H22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="W22" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X22" t="n">
         <v>1.25</v>
       </c>
-      <c r="R22" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V22" t="n">
+      <c r="Y22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM22" t="n">
         <v>1.95</v>
       </c>
-      <c r="W22" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>2</v>
-      </c>
       <c r="AN22" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AO22" t="n">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AP22" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
@@ -3588,128 +3588,128 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FC Penafiel</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CD Mafra</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="I23" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="J23" t="n">
-        <v>2.46</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="L23" t="n">
-        <v>2.53</v>
+        <v>2.2</v>
       </c>
       <c r="M23" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="N23" t="n">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="O23" t="n">
         <v>1.05</v>
       </c>
       <c r="P23" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="R23" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="S23" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM23" t="n">
         <v>2.06</v>
       </c>
-      <c r="T23" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
       <c r="AN23" t="n">
-        <v>1.98</v>
+        <v>2.17</v>
       </c>
       <c r="AO23" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="AP23" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="24">
@@ -3749,13 +3749,13 @@
         <v>3.4</v>
       </c>
       <c r="J24" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="K24" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M24" t="n">
         <v>1.33</v>
@@ -3779,7 +3779,7 @@
         <v>1.77</v>
       </c>
       <c r="T24" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="U24" t="n">
         <v>1.63</v>
@@ -3854,7 +3854,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -3866,134 +3866,134 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>FC Penafiel</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>CD Mafra</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="I25" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>2.45</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>3.25</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="N25" t="n">
-        <v>2.51</v>
+        <v>2.65</v>
       </c>
       <c r="O25" t="n">
         <v>1.05</v>
       </c>
       <c r="P25" t="n">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="R25" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S25" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T25" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="U25" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="V25" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W25" t="n">
-        <v>1.79</v>
+        <v>1.42</v>
       </c>
       <c r="X25" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
       <c r="Z25" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AA25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.09</v>
+        <v>1.54</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="AE25" t="n">
-        <v>2.76</v>
+        <v>1.78</v>
       </c>
       <c r="AF25" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AG25" t="n">
-        <v>1.65</v>
+        <v>2.52</v>
       </c>
       <c r="AH25" t="n">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="AI25" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AK25" t="n">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="AL25" t="n">
-        <v>1.75</v>
+        <v>1.52</v>
       </c>
       <c r="AM25" t="n">
-        <v>2.06</v>
+        <v>2.36</v>
       </c>
       <c r="AN25" t="n">
-        <v>2.17</v>
+        <v>1.98</v>
       </c>
       <c r="AO25" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.7</v>
+        <v>2.34</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -4005,128 +4005,128 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Kasımpaşa</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>İstanbulspor</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="I26" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="J26" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="K26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="N26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O26" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P26" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Q26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X26" t="n">
         <v>1.2</v>
       </c>
-      <c r="R26" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="S26" t="n">
+      <c r="Y26" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO26" t="n">
         <v>1.67</v>
       </c>
-      <c r="T26" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="X26" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>1.55</v>
-      </c>
       <c r="AP26" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="27">
@@ -4157,22 +4157,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L27" t="n">
         <v>3.6</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.98</v>
       </c>
       <c r="M27" t="n">
         <v>1.33</v>
@@ -4193,10 +4193,10 @@
         <v>3.75</v>
       </c>
       <c r="S27" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U27" t="n">
         <v>1.67</v>
@@ -4232,10 +4232,10 @@
         <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AH27" t="n">
         <v>0</v>
@@ -4244,10 +4244,10 @@
         <v>0</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AL27" t="n">
         <v>1.54</v>
@@ -4302,16 +4302,16 @@
         <v>2.5</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J28" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="K28" t="n">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="L28" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.28</v>
@@ -4332,10 +4332,10 @@
         <v>4.45</v>
       </c>
       <c r="S28" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="T28" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="U28" t="n">
         <v>1.8</v>
@@ -4368,25 +4368,25 @@
         <v>2.69</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AL28" t="n">
         <v>1.76</v>
@@ -4401,10 +4401,10 @@
         <v>1.64</v>
       </c>
       <c r="AP28" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="29">
@@ -4444,13 +4444,13 @@
         <v>3.8</v>
       </c>
       <c r="J29" t="n">
-        <v>2.49</v>
+        <v>2.4</v>
       </c>
       <c r="K29" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
         <v>1.5</v>
@@ -4471,10 +4471,10 @@
         <v>2.5</v>
       </c>
       <c r="S29" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="T29" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="U29" t="n">
         <v>2</v>
@@ -4549,7 +4549,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Netherlands Eredivisie</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
@@ -4561,134 +4561,134 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>PEC Zwolle</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P30" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V30" t="n">
         <v>2.2</v>
       </c>
-      <c r="H30" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="L30" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P30" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="R30" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="S30" t="n">
+      <c r="W30" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AA30" t="n">
         <v>1.5</v>
       </c>
-      <c r="T30" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V30" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X30" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0.6</v>
-      </c>
       <c r="AB30" t="n">
-        <v>1.89</v>
+        <v>1.28</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.1</v>
+        <v>1.42</v>
       </c>
       <c r="AD30" t="n">
-        <v>2.99</v>
+        <v>2.7</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="AF30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG30" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AK30" t="n">
         <v>2.8</v>
       </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0</v>
-      </c>
       <c r="AL30" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="AM30" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AN30" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="AO30" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AP30" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Netherlands Eredivisie</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -4700,128 +4700,128 @@
         </is>
       </c>
       <c r="D31" t="n">
+        <v>12</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>VVV</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P31" t="n">
         <v>10</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Vitesse</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>PEC Zwolle</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="H31" t="n">
+      <c r="Q31" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T31" t="n">
         <v>2.3</v>
       </c>
-      <c r="I31" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P31" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y31" t="n">
         <v>2</v>
       </c>
-      <c r="U31" t="n">
+      <c r="Z31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AL31" t="n">
         <v>1.62</v>
       </c>
-      <c r="V31" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X31" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>1.6</v>
-      </c>
       <c r="AM31" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="AN31" t="n">
         <v>1.98</v>
       </c>
       <c r="AO31" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.5</v>
+        <v>2.49</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="32">
@@ -4933,16 +4933,16 @@
         <v>3.4</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AL32" t="n">
         <v>1.71</v>
@@ -4957,10 +4957,10 @@
         <v>1.72</v>
       </c>
       <c r="AP32" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="33">
@@ -4982,124 +4982,124 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Ajax II</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.37</v>
+        <v>1.87</v>
       </c>
       <c r="H33" t="n">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="I33" t="n">
-        <v>4.12</v>
+        <v>5.51</v>
       </c>
       <c r="J33" t="n">
-        <v>1.88</v>
+        <v>1.45</v>
       </c>
       <c r="K33" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="L33" t="n">
-        <v>3.8</v>
+        <v>6.2</v>
       </c>
       <c r="M33" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="N33" t="n">
-        <v>3.48</v>
+        <v>4.15</v>
       </c>
       <c r="O33" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="P33" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="Q33" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AH33" t="n">
         <v>1.2</v>
       </c>
-      <c r="R33" t="n">
+      <c r="AI33" t="n">
         <v>4</v>
       </c>
-      <c r="S33" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V33" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AB33" t="n">
+      <c r="AJ33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AL33" t="n">
         <v>1.68</v>
       </c>
-      <c r="AC33" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>1.85</v>
-      </c>
       <c r="AM33" t="n">
-        <v>1.96</v>
+        <v>2.19</v>
       </c>
       <c r="AN33" t="n">
-        <v>2.31</v>
+        <v>2.08</v>
       </c>
       <c r="AO33" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="AP33" t="n">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="34">
@@ -5121,55 +5121,55 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>VVV</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J34" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="K34" t="n">
-        <v>4.09</v>
+        <v>4.18</v>
       </c>
       <c r="L34" t="n">
-        <v>4.02</v>
+        <v>4.28</v>
       </c>
       <c r="M34" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="N34" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O34" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="R34" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="S34" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="T34" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="U34" t="n">
         <v>1.53</v>
@@ -5178,67 +5178,67 @@
         <v>2.38</v>
       </c>
       <c r="W34" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="X34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AH34" t="n">
         <v>1.22</v>
       </c>
-      <c r="Y34" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0</v>
-      </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AL34" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="AM34" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="AN34" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="AO34" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.49</v>
+        <v>2.98</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="35">
@@ -5260,37 +5260,37 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>AZ II</t>
+          <t>PSV II</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="H35" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="I35" t="n">
-        <v>5.25</v>
+        <v>6.08</v>
       </c>
       <c r="J35" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="K35" t="n">
-        <v>4.55</v>
+        <v>4.8</v>
       </c>
       <c r="L35" t="n">
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
       <c r="M35" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="N35" t="n">
-        <v>3.4</v>
+        <v>3.56</v>
       </c>
       <c r="O35" t="n">
         <v>1.02</v>
@@ -5299,85 +5299,85 @@
         <v>10</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="R35" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="S35" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="T35" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="U35" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="V35" t="n">
         <v>2.1</v>
       </c>
       <c r="W35" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="X35" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="Y35" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z35" t="n">
         <v>2.5</v>
       </c>
-      <c r="Z35" t="n">
-        <v>1.4</v>
-      </c>
       <c r="AA35" t="n">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="AC35" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AD35" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="AE35" t="n">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="AF35" t="n">
-        <v>8.5</v>
+        <v>9.9</v>
       </c>
       <c r="AG35" t="n">
-        <v>2.75</v>
+        <v>3.88</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AL35" t="n">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="AM35" t="n">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="AN35" t="n">
-        <v>2.16</v>
+        <v>2.62</v>
       </c>
       <c r="AO35" t="n">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="AP35" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="36">
@@ -5489,16 +5489,16 @@
         <v>3.4</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AL36" t="n">
         <v>1.6</v>
@@ -5538,124 +5538,124 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ajax II</t>
+          <t>AZ II</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="H37" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="I37" t="n">
-        <v>5.51</v>
+        <v>5.25</v>
       </c>
       <c r="J37" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="K37" t="n">
-        <v>5</v>
+        <v>4.55</v>
       </c>
       <c r="L37" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="M37" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P37" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AH37" t="n">
         <v>1.21</v>
       </c>
-      <c r="N37" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P37" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="V37" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X37" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0</v>
-      </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AL37" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AM37" t="n">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="AN37" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="AO37" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AP37" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="38">
@@ -5677,124 +5677,124 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>PSV II</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.89</v>
+        <v>2.37</v>
       </c>
       <c r="H38" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="I38" t="n">
-        <v>6.08</v>
+        <v>4.12</v>
       </c>
       <c r="J38" t="n">
-        <v>1.44</v>
+        <v>1.88</v>
       </c>
       <c r="K38" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="L38" t="n">
-        <v>6.6</v>
+        <v>3.8</v>
       </c>
       <c r="M38" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P38" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AH38" t="n">
         <v>1.27</v>
       </c>
-      <c r="N38" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P38" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="T38" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V38" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X38" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>0</v>
-      </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AK38" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AL38" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AM38" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AO38" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AP38" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="39">
@@ -5834,13 +5834,13 @@
         <v>4.75</v>
       </c>
       <c r="J39" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="K39" t="n">
         <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="M39" t="n">
         <v>1.27</v>
@@ -5861,16 +5861,16 @@
         <v>4.75</v>
       </c>
       <c r="S39" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="T39" t="n">
-        <v>2.39</v>
+        <v>2.25</v>
       </c>
       <c r="U39" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V39" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W39" t="n">
         <v>1.15</v>
@@ -5900,10 +5900,10 @@
         <v>0</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="AH39" t="n">
         <v>0</v>
@@ -5912,16 +5912,16 @@
         <v>0</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AK39" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AL39" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AM39" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AN39" t="n">
         <v>1.69</v>
@@ -5930,10 +5930,10 @@
         <v>2.04</v>
       </c>
       <c r="AP39" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="40">
@@ -5964,22 +5964,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H40" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="K40" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="L40" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M40" t="n">
         <v>1.31</v>
@@ -6000,10 +6000,10 @@
         <v>4.1</v>
       </c>
       <c r="S40" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="T40" t="n">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="U40" t="n">
         <v>1.67</v>
@@ -6039,10 +6039,10 @@
         <v>1.63</v>
       </c>
       <c r="AF40" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AG40" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="AH40" t="n">
         <v>0</v>
@@ -6057,7 +6057,7 @@
         <v>2.84</v>
       </c>
       <c r="AL40" t="n">
-        <v>1.62</v>
+        <v>2.2</v>
       </c>
       <c r="AM40" t="n">
         <v>2.13</v>
@@ -6078,7 +6078,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Germany Bundesliga</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
@@ -6090,134 +6090,134 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>ŁKS Łódź</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>Górnik Zabrze</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H41" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="I41" t="n">
         <v>3.25</v>
       </c>
       <c r="J41" t="n">
-        <v>2.28</v>
+        <v>2.63</v>
       </c>
       <c r="K41" t="n">
-        <v>3.43</v>
+        <v>3.25</v>
       </c>
       <c r="L41" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="M41" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="N41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AP41" t="n">
         <v>3</v>
       </c>
-      <c r="O41" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P41" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V41" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X41" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>3.35</v>
-      </c>
       <c r="AQ41" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Germany Bundesliga</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
@@ -6229,65 +6229,65 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H42" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="I42" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J42" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="K42" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="L42" t="n">
-        <v>2.36</v>
+        <v>2.9</v>
       </c>
       <c r="M42" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="N42" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="O42" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="P42" t="n">
-        <v>9.949999999999999</v>
+        <v>13</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="R42" t="n">
-        <v>3.22</v>
+        <v>4</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="T42" t="n">
-        <v>1.7</v>
+        <v>2.02</v>
       </c>
       <c r="U42" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="V42" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W42" t="n">
         <v>1.45</v>
@@ -6296,67 +6296,67 @@
         <v>1.25</v>
       </c>
       <c r="Y42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO42" t="n">
         <v>1.42</v>
       </c>
-      <c r="Z42" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>1.47</v>
-      </c>
       <c r="AP42" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
@@ -6368,38 +6368,38 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ŁKS Łódź</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Górnik Zabrze</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H43" t="n">
         <v>2.05</v>
       </c>
       <c r="I43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K43" t="n">
         <v>3.25</v>
       </c>
-      <c r="J43" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L43" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="M43" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="N43" t="n">
         <v>2.6</v>
@@ -6408,94 +6408,94 @@
         <v>1.07</v>
       </c>
       <c r="P43" t="n">
-        <v>8.5</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="R43" t="n">
-        <v>3.1</v>
+        <v>3.22</v>
       </c>
       <c r="S43" t="n">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="T43" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U43" t="n">
         <v>1.83</v>
       </c>
-      <c r="U43" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V43" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AE43" t="n">
         <v>1.95</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X43" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>1.82</v>
       </c>
       <c r="AF43" t="n">
         <v>8</v>
       </c>
       <c r="AG43" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AH43" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AI43" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AK43" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="AL43" t="n">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="AM43" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="AN43" t="n">
-        <v>2.23</v>
+        <v>2.4</v>
       </c>
       <c r="AO43" t="n">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="AP43" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Republic of Ireland Premier Division</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
@@ -6507,134 +6507,134 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>Sint-Truiden</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>RWDM</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5</v>
+        <v>2.38</v>
       </c>
       <c r="H44" t="n">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="I44" t="n">
-        <v>2.1</v>
+        <v>4.25</v>
       </c>
       <c r="J44" t="n">
-        <v>5.8</v>
+        <v>1.91</v>
       </c>
       <c r="K44" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="L44" t="n">
-        <v>1.46</v>
+        <v>3.75</v>
       </c>
       <c r="M44" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="N44" t="n">
-        <v>3.05</v>
+        <v>3.22</v>
       </c>
       <c r="O44" t="n">
         <v>1.01</v>
       </c>
       <c r="P44" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="R44" t="n">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="S44" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="T44" t="n">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="U44" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="V44" t="n">
-        <v>2</v>
+        <v>2.19</v>
       </c>
       <c r="W44" t="n">
-        <v>2.35</v>
+        <v>1.26</v>
       </c>
       <c r="X44" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.12</v>
+        <v>1.9</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AA44" t="n">
-        <v>1.71</v>
+        <v>1</v>
       </c>
       <c r="AB44" t="n">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="AC44" t="n">
-        <v>1.32</v>
+        <v>0.95</v>
       </c>
       <c r="AD44" t="n">
-        <v>2.52</v>
+        <v>2.34</v>
       </c>
       <c r="AE44" t="n">
-        <v>4.86</v>
+        <v>1.27</v>
       </c>
       <c r="AF44" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>1.26</v>
+        <v>4.6</v>
       </c>
       <c r="AH44" t="n">
         <v>1.23</v>
       </c>
       <c r="AI44" t="n">
-        <v>3.56</v>
+        <v>3.6</v>
       </c>
       <c r="AJ44" t="n">
         <v>1.44</v>
       </c>
       <c r="AK44" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="AL44" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AM44" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AN44" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="AO44" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Republic of Ireland Premier Division</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
@@ -6646,134 +6646,134 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="H45" t="n">
-        <v>2.31</v>
+        <v>2.1</v>
       </c>
       <c r="I45" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="J45" t="n">
-        <v>2.73</v>
+        <v>1.8</v>
       </c>
       <c r="K45" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L45" t="n">
-        <v>2.31</v>
+        <v>4.33</v>
       </c>
       <c r="M45" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="N45" t="n">
-        <v>3.23</v>
+        <v>2.63</v>
       </c>
       <c r="O45" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="P45" t="n">
         <v>9</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="R45" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="S45" t="n">
-        <v>1.86</v>
+        <v>2.12</v>
       </c>
       <c r="T45" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U45" t="n">
         <v>2</v>
       </c>
-      <c r="U45" t="n">
-        <v>1.63</v>
-      </c>
       <c r="V45" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="W45" t="n">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="X45" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="Y45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AO45" t="n">
         <v>1.4</v>
       </c>
-      <c r="Z45" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>1.61</v>
-      </c>
       <c r="AP45" t="n">
-        <v>3.08</v>
+        <v>3.74</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Republic of Ireland Premier Division</t>
+          <t>Wales Welsh Premier League</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
@@ -6785,128 +6785,128 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>UCD</t>
+          <t>Aberystwyth Town</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="I46" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="J46" t="n">
-        <v>1.12</v>
+        <v>1.33</v>
       </c>
       <c r="K46" t="n">
-        <v>7.8</v>
+        <v>4.8</v>
       </c>
       <c r="L46" t="n">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="M46" t="n">
         <v>1.25</v>
       </c>
       <c r="N46" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O46" t="n">
         <v>1.01</v>
       </c>
       <c r="P46" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q46" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="X46" t="n">
         <v>1.13</v>
       </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T46" t="n">
+      <c r="Y46" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AD46" t="n">
         <v>2.55</v>
       </c>
-      <c r="U46" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V46" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W46" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X46" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>2.13</v>
-      </c>
       <c r="AE46" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AF46" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG46" t="n">
-        <v>6.16</v>
+        <v>4.66</v>
       </c>
       <c r="AH46" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AI46" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="AK46" t="n">
-        <v>2.33</v>
+        <v>2.7</v>
       </c>
       <c r="AL46" t="n">
-        <v>1.95</v>
+        <v>1.69</v>
       </c>
       <c r="AM46" t="n">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="AN46" t="n">
-        <v>2.52</v>
+        <v>2.12</v>
       </c>
       <c r="AO46" t="n">
-        <v>1.51</v>
+        <v>1.66</v>
       </c>
       <c r="AP46" t="n">
-        <v>3.34</v>
+        <v>2.65</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="47">
@@ -6946,13 +6946,13 @@
         <v>5</v>
       </c>
       <c r="J47" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="K47" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="L47" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M47" t="n">
         <v>1.22</v>
@@ -6973,10 +6973,10 @@
         <v>5.5</v>
       </c>
       <c r="S47" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="T47" t="n">
-        <v>2.55</v>
+        <v>2.24</v>
       </c>
       <c r="U47" t="n">
         <v>1.57</v>
@@ -7051,7 +7051,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Wales Welsh Premier League</t>
+          <t>Republic of Ireland Premier Division</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
@@ -7063,134 +7063,134 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Aberystwyth Town</t>
+          <t>UCD</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="J48" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="K48" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="L48" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="M48" t="n">
         <v>1.25</v>
       </c>
       <c r="N48" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O48" t="n">
         <v>1.01</v>
       </c>
       <c r="P48" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="R48" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="S48" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="T48" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="U48" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="V48" t="n">
-        <v>2.03</v>
+        <v>1.5</v>
       </c>
       <c r="W48" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="X48" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="Y48" t="n">
-        <v>2.88</v>
+        <v>4.75</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.57</v>
+        <v>0.12</v>
       </c>
       <c r="AB48" t="n">
-        <v>1.67</v>
+        <v>1.23</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="AD48" t="n">
-        <v>2.55</v>
+        <v>2.13</v>
       </c>
       <c r="AE48" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AF48" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG48" t="n">
-        <v>4.66</v>
+        <v>6.16</v>
       </c>
       <c r="AH48" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AI48" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="AK48" t="n">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="AL48" t="n">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="AM48" t="n">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="AN48" t="n">
-        <v>2.12</v>
+        <v>2.52</v>
       </c>
       <c r="AO48" t="n">
-        <v>1.66</v>
+        <v>1.51</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.65</v>
+        <v>3.34</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Republic of Ireland Premier Division</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
@@ -7202,134 +7202,134 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sint-Truiden</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>RWDM</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.38</v>
+        <v>3.3</v>
       </c>
       <c r="H49" t="n">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="I49" t="n">
-        <v>4.25</v>
+        <v>3.2</v>
       </c>
       <c r="J49" t="n">
-        <v>1.92</v>
+        <v>2.63</v>
       </c>
       <c r="K49" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L49" t="n">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="M49" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="N49" t="n">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
       <c r="O49" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="P49" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="R49" t="n">
-        <v>3.98</v>
+        <v>3.6</v>
       </c>
       <c r="S49" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="T49" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="U49" t="n">
         <v>1.63</v>
       </c>
       <c r="V49" t="n">
-        <v>2.19</v>
+        <v>2.2</v>
       </c>
       <c r="W49" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="X49" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.2</v>
+        <v>1.88</v>
       </c>
       <c r="AA49" t="n">
-        <v>1</v>
+        <v>1.41</v>
       </c>
       <c r="AB49" t="n">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.95</v>
+        <v>1.24</v>
       </c>
       <c r="AD49" t="n">
-        <v>2.34</v>
+        <v>2.8</v>
       </c>
       <c r="AE49" t="n">
-        <v>1.27</v>
+        <v>2.2</v>
       </c>
       <c r="AF49" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG49" t="n">
-        <v>4.6</v>
+        <v>1.91</v>
       </c>
       <c r="AH49" t="n">
         <v>1.23</v>
       </c>
       <c r="AI49" t="n">
-        <v>3.6</v>
+        <v>3.56</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="AK49" t="n">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="AL49" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AM49" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AN49" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="AO49" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="AP49" t="n">
-        <v>3.2</v>
+        <v>3.08</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Republic of Ireland Premier Division</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
@@ -7341,134 +7341,134 @@
         </is>
       </c>
       <c r="D50" t="n">
+        <v>35</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Cork City</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Derry City</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>5</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="K50" t="n">
+        <v>4</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P50" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2</v>
+      </c>
+      <c r="W50" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="AF50" t="n">
         <v>10</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Genoa</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Salernitana</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>5</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K50" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="M50" t="n">
+      <c r="AG50" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AJ50" t="n">
         <v>1.44</v>
       </c>
-      <c r="N50" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P50" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R50" t="n">
-        <v>3</v>
-      </c>
-      <c r="S50" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T50" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U50" t="n">
-        <v>2</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W50" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X50" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>1.64</v>
-      </c>
       <c r="AK50" t="n">
-        <v>2.15</v>
+        <v>2.57</v>
       </c>
       <c r="AL50" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AM50" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AN50" t="n">
-        <v>2.77</v>
+        <v>2.27</v>
       </c>
       <c r="AO50" t="n">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AP50" t="n">
-        <v>3.74</v>
+        <v>2.98</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Republic of Ireland Premier Division</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
@@ -7480,134 +7480,134 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>St Patrick's Athl.</t>
+          <t>SD Eibar</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Real Valladolid</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="H51" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="I51" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K51" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L51" t="n">
-        <v>2.08</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X51" t="n">
         <v>1.36</v>
       </c>
-      <c r="N51" t="n">
-        <v>3</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P51" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R51" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T51" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U51" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V51" t="n">
+      <c r="Y51" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Z51" t="n">
         <v>2</v>
       </c>
-      <c r="W51" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="X51" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>1.94</v>
-      </c>
       <c r="AA51" t="n">
-        <v>1.63</v>
+        <v>1.2</v>
       </c>
       <c r="AB51" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="AC51" t="n">
-        <v>1.6</v>
+        <v>1.15</v>
       </c>
       <c r="AD51" t="n">
-        <v>3.11</v>
+        <v>2.58</v>
       </c>
       <c r="AE51" t="n">
-        <v>2.63</v>
+        <v>1.59</v>
       </c>
       <c r="AF51" t="n">
         <v>8</v>
       </c>
       <c r="AG51" t="n">
-        <v>1.69</v>
+        <v>2.9</v>
       </c>
       <c r="AH51" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ51" t="n">
         <v>1.2</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AP51" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AQ51" t="n">
-        <v>1.35</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
@@ -7619,125 +7619,125 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Girona FC</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Celta de Vigo</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.38</v>
+        <v>4.75</v>
       </c>
       <c r="H52" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="I52" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="J52" t="n">
-        <v>1.82</v>
+        <v>3.75</v>
       </c>
       <c r="K52" t="n">
         <v>3.5</v>
       </c>
       <c r="L52" t="n">
-        <v>3.7</v>
+        <v>1.95</v>
       </c>
       <c r="M52" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="N52" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="O52" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="P52" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="R52" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="S52" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W52" t="n">
         <v>1.85</v>
       </c>
-      <c r="T52" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="U52" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V52" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W52" t="n">
-        <v>1.22</v>
-      </c>
       <c r="X52" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="Y52" t="n">
-        <v>2.1</v>
+        <v>1.24</v>
       </c>
       <c r="Z52" t="n">
-        <v>2.4</v>
+        <v>0.25</v>
       </c>
       <c r="AA52" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>1.73</v>
+        <v>1.43</v>
       </c>
       <c r="AC52" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="AD52" t="n">
-        <v>3.24</v>
+        <v>3.01</v>
       </c>
       <c r="AE52" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="AF52" t="n">
         <v>7.5</v>
       </c>
       <c r="AG52" t="n">
-        <v>2.33</v>
+        <v>1.7</v>
       </c>
       <c r="AH52" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AI52" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AK52" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="AL52" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AM52" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AN52" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AO52" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AP52" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.22</v>
@@ -7746,7 +7746,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
@@ -7762,130 +7762,130 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="H53" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L53" t="n">
         <v>2.1</v>
       </c>
-      <c r="I53" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K53" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1.9</v>
-      </c>
       <c r="M53" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="N53" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="O53" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="P53" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V53" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W53" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AB53" t="n">
         <v>1.38</v>
       </c>
-      <c r="R53" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S53" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U53" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V53" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W53" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="X53" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>1.43</v>
-      </c>
       <c r="AC53" t="n">
-        <v>1.58</v>
+        <v>1.78</v>
       </c>
       <c r="AD53" t="n">
-        <v>3.01</v>
+        <v>3.16</v>
       </c>
       <c r="AE53" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AF53" t="n">
         <v>7.5</v>
       </c>
       <c r="AG53" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="AH53" t="n">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="AI53" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
       <c r="AK53" t="n">
-        <v>2.1</v>
+        <v>2.65</v>
       </c>
       <c r="AL53" t="n">
-        <v>2.05</v>
+        <v>1.68</v>
       </c>
       <c r="AM53" t="n">
-        <v>1.67</v>
+        <v>2.02</v>
       </c>
       <c r="AN53" t="n">
-        <v>2.63</v>
+        <v>2.08</v>
       </c>
       <c r="AO53" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ53" t="n">
         <v>1.38</v>
-      </c>
-      <c r="AP53" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AQ53" t="n">
-        <v>1.22</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Republic of Ireland Premier Division</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
@@ -7897,134 +7897,134 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SD Eibar</t>
+          <t>St Patrick's Athl.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Real Valladolid</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="H54" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="I54" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="J54" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K54" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P54" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V54" t="n">
         <v>2</v>
       </c>
-      <c r="K54" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L54" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N54" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P54" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R54" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="S54" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="T54" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U54" t="n">
-        <v>2</v>
-      </c>
-      <c r="V54" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W54" t="n">
-        <v>1.22</v>
+        <v>1.68</v>
       </c>
       <c r="X54" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="Z54" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AA54" t="n">
-        <v>1.2</v>
+        <v>1.63</v>
       </c>
       <c r="AB54" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="AC54" t="n">
-        <v>1.15</v>
+        <v>1.6</v>
       </c>
       <c r="AD54" t="n">
-        <v>2.58</v>
+        <v>3.11</v>
       </c>
       <c r="AE54" t="n">
-        <v>1.59</v>
+        <v>2.63</v>
       </c>
       <c r="AF54" t="n">
         <v>8</v>
       </c>
       <c r="AG54" t="n">
-        <v>2.9</v>
+        <v>1.69</v>
       </c>
       <c r="AH54" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AI54" t="n">
-        <v>3</v>
+        <v>3.86</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="AK54" t="n">
-        <v>2.15</v>
+        <v>2.72</v>
       </c>
       <c r="AL54" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AM54" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AN54" t="n">
-        <v>2.75</v>
+        <v>2.16</v>
       </c>
       <c r="AO54" t="n">
-        <v>1.37</v>
+        <v>1.62</v>
       </c>
       <c r="AP54" t="n">
-        <v>4</v>
+        <v>2.84</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
@@ -8036,35 +8036,35 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Girona FC</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Celta de Vigo</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.33</v>
+        <v>2.38</v>
       </c>
       <c r="H55" t="n">
         <v>2.3</v>
       </c>
       <c r="I55" t="n">
-        <v>2.38</v>
+        <v>4.5</v>
       </c>
       <c r="J55" t="n">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="K55" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L55" t="n">
-        <v>1.95</v>
+        <v>4.33</v>
       </c>
       <c r="M55" t="n">
         <v>1.33</v>
@@ -8073,22 +8073,22 @@
         <v>3.25</v>
       </c>
       <c r="O55" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P55" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q55" t="n">
         <v>1.25</v>
       </c>
       <c r="R55" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="S55" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T55" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="U55" t="n">
         <v>1.67</v>
@@ -8097,67 +8097,67 @@
         <v>2.1</v>
       </c>
       <c r="W55" t="n">
-        <v>2.05</v>
+        <v>1.22</v>
       </c>
       <c r="X55" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y55" t="n">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Z55" t="n">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="AA55" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="AB55" t="n">
-        <v>1.38</v>
+        <v>1.73</v>
       </c>
       <c r="AC55" t="n">
-        <v>1.78</v>
+        <v>1.51</v>
       </c>
       <c r="AD55" t="n">
-        <v>3.16</v>
+        <v>3.24</v>
       </c>
       <c r="AE55" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="AF55" t="n">
         <v>7.5</v>
       </c>
       <c r="AG55" t="n">
-        <v>1.76</v>
+        <v>2.33</v>
       </c>
       <c r="AH55" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AI55" t="n">
-        <v>3.7</v>
+        <v>2.85</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="AK55" t="n">
-        <v>2.65</v>
+        <v>2.14</v>
       </c>
       <c r="AL55" t="n">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="AM55" t="n">
-        <v>2.02</v>
+        <v>1.7</v>
       </c>
       <c r="AN55" t="n">
-        <v>2.08</v>
+        <v>2.6</v>
       </c>
       <c r="AO55" t="n">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.65</v>
+        <v>3.5</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="56">
@@ -8197,13 +8197,13 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="K56" t="n">
         <v>3.3</v>
       </c>
       <c r="L56" t="n">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -8224,10 +8224,10 @@
         <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="T56" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="U56" t="n">
         <v>0</v>
@@ -8302,7 +8302,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Brazil Serie A</t>
+          <t>Uruguay Primera División</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
@@ -8314,16 +8314,16 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Fénix</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Deportivo Maldonado</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -8384,19 +8384,19 @@
         <v>0</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.92</v>
+        <v>1.07</v>
       </c>
       <c r="AA57" t="n">
-        <v>1.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB57" t="n">
-        <v>1.78</v>
+        <v>1.26</v>
       </c>
       <c r="AC57" t="n">
-        <v>1.66</v>
+        <v>1.32</v>
       </c>
       <c r="AD57" t="n">
-        <v>3.44</v>
+        <v>2.58</v>
       </c>
       <c r="AE57" t="n">
         <v>0</v>
@@ -8457,12 +8457,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -8523,19 +8523,19 @@
         <v>0</v>
       </c>
       <c r="Z58" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AA58" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AB58" t="n">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="AC58" t="n">
-        <v>1.47</v>
+        <v>1.66</v>
       </c>
       <c r="AD58" t="n">
-        <v>3.39</v>
+        <v>3.44</v>
       </c>
       <c r="AE58" t="n">
         <v>0</v>
@@ -8580,7 +8580,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Brazil Serie B</t>
+          <t>Brazil Serie A</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
@@ -8592,98 +8592,98 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Ceará</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.57</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
         <v>2</v>
       </c>
-      <c r="V59" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W59" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X59" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y59" t="n">
+      <c r="AA59" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AC59" t="n">
         <v>1.47</v>
       </c>
-      <c r="Z59" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>1.31</v>
-      </c>
       <c r="AD59" t="n">
-        <v>2.94</v>
+        <v>3.39</v>
       </c>
       <c r="AE59" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="AF59" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG59" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AH59" t="n">
         <v>0</v>
@@ -8692,34 +8692,34 @@
         <v>0</v>
       </c>
       <c r="AJ59" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AK59" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AL59" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AM59" t="n">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="AN59" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AO59" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Uruguay Primera División</t>
+          <t>Brazil Serie B</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
@@ -8731,128 +8731,128 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Ceará</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Peñarol</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="U60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V60" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="W60" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X60" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Y60" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="Z60" t="n">
-        <v>2.29</v>
+        <v>1.56</v>
       </c>
       <c r="AA60" t="n">
-        <v>1.79</v>
+        <v>1.25</v>
       </c>
       <c r="AB60" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AC60" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AL60" t="n">
         <v>1.47</v>
       </c>
-      <c r="AD60" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>0</v>
-      </c>
       <c r="AM60" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AN60" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AO60" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AP60" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="61">
@@ -9013,12 +9013,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Fénix</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Deportivo Maldonado</t>
+          <t>Peñarol</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -9079,19 +9079,19 @@
         <v>0</v>
       </c>
       <c r="Z62" t="n">
-        <v>1.07</v>
+        <v>2.29</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.79</v>
       </c>
       <c r="AB62" t="n">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="AC62" t="n">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="AD62" t="n">
-        <v>2.58</v>
+        <v>3.22</v>
       </c>
       <c r="AE62" t="n">
         <v>0</v>
@@ -9865,13 +9865,13 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="K68" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="L68" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="T68" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="U68" t="n">
         <v>0</v>
@@ -9986,124 +9986,124 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I69" t="n">
+        <v>6</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K69" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L69" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="N69" t="n">
         <v>2.25</v>
       </c>
-      <c r="H69" t="n">
+      <c r="O69" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P69" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V69" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X69" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM69" t="n">
         <v>2</v>
       </c>
-      <c r="I69" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L69" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="N69" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O69" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P69" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R69" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="S69" t="n">
+      <c r="AN69" t="n">
         <v>2.15</v>
       </c>
-      <c r="T69" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U69" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V69" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W69" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="X69" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>1.93</v>
-      </c>
       <c r="AO69" t="n">
-        <v>1.88</v>
+        <v>1.58</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.37</v>
+        <v>2.9</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="70">
@@ -10125,124 +10125,124 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H70" t="n">
+        <v>2</v>
+      </c>
+      <c r="I70" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K70" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L70" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P70" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V70" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X70" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AN70" t="n">
         <v>1.93</v>
       </c>
-      <c r="I70" t="n">
-        <v>6</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="K70" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="N70" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O70" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P70" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R70" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="S70" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T70" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U70" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="V70" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W70" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X70" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AM70" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>2.15</v>
-      </c>
       <c r="AO70" t="n">
-        <v>1.58</v>
+        <v>1.88</v>
       </c>
       <c r="AP70" t="n">
-        <v>2.9</v>
+        <v>2.37</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>
